--- a/src/main/resources/static/requisition/TR_pt.xlsx
+++ b/src/main/resources/static/requisition/TR_pt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fubo.ding/projects_siglus_to14/siglus-api/src/main/resources/static/requisition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4D3D2F-FB2A-4142-8E10-ED023F277B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98284D1B-B440-F741-B06A-B34386A12123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36440" yWindow="-820" windowWidth="34560" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TR" sheetId="1" r:id="rId1"/>
@@ -615,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -706,9 +706,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -721,6 +718,9 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,9 +777,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,14 +1205,14 @@
   <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="140" zoomScaleSheetLayoutView="134" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="3.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.3984375" style="1" customWidth="1"/>
@@ -1354,9 +1351,9 @@
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
       <c r="I5" s="44"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -1390,14 +1387,14 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="1:27" ht="25" customHeight="1">
-      <c r="A7" s="54" t="s">
+    <row r="7" spans="1:27" ht="38" customHeight="1">
+      <c r="A7" s="34" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -1434,7 +1431,7 @@
       <c r="I8"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
-      <c r="L8" s="32"/>
+      <c r="L8" s="31"/>
       <c r="M8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
@@ -1725,7 +1722,7 @@
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
     </row>
-    <row r="15" spans="1:27" ht="18.25" customHeight="1">
+    <row r="15" spans="1:27" ht="26" customHeight="1">
       <c r="A15" s="29"/>
       <c r="B15" s="24" t="s">
         <v>5</v>
@@ -1974,7 +1971,7 @@
       <c r="AA22" s="13"/>
     </row>
     <row r="23" spans="1:27">
-      <c r="B23" s="33"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
@@ -2049,7 +2046,7 @@
       <c r="L25" s="16"/>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
-      <c r="O25" s="34"/>
+      <c r="O25" s="33"/>
       <c r="P25" s="19"/>
     </row>
     <row r="26" spans="1:27" ht="30.5" customHeight="1">

--- a/src/main/resources/static/requisition/TR_pt.xlsx
+++ b/src/main/resources/static/requisition/TR_pt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fubo.ding/projects_siglus_to14/siglus-api/src/main/resources/static/requisition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98284D1B-B440-F741-B06A-B34386A12123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0592C761-4C33-9E4A-8E15-0A02DDAF0830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,6 +721,30 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -728,6 +752,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -739,43 +775,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="140" zoomScaleSheetLayoutView="134" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1242,26 +1242,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="43.25" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
       <c r="O1" s="12" t="s">
         <v>15</v>
       </c>
@@ -1270,56 +1270,56 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="18.25" customHeight="1">
-      <c r="A2" s="46"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="42" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="49" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="18.25" customHeight="1">
-      <c r="A3" s="46"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="53"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1">
       <c r="A4" s="3"/>
@@ -1341,16 +1341,16 @@
     </row>
     <row r="5" spans="1:27" ht="30.5" customHeight="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
@@ -1361,10 +1361,10 @@
     </row>
     <row r="6" spans="1:27" ht="30" customHeight="1">
       <c r="A6" s="29"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
@@ -1455,85 +1455,85 @@
     </row>
     <row r="10" spans="1:27" ht="30.5" customHeight="1">
       <c r="A10" s="29"/>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="52"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="48"/>
     </row>
     <row r="11" spans="1:27" ht="24.25" customHeight="1">
       <c r="A11" s="29"/>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="35" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="35" t="s">
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="35" t="s">
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="36" t="s">
         <v>34</v>
       </c>
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
-      <c r="O11" s="36" t="s">
+      <c r="O11" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="35" t="s">
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="36"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="35" t="s">
+      <c r="T11" s="44"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="W11" s="36"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="35" t="s">
+      <c r="W11" s="44"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="37"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="45"/>
     </row>
     <row r="12" spans="1:27" ht="21.25" customHeight="1">
       <c r="A12" s="29"/>
-      <c r="B12" s="41"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="21" t="s">
         <v>29</v>
       </c>
@@ -2050,62 +2050,62 @@
       <c r="P25" s="19"/>
     </row>
     <row r="26" spans="1:27" ht="30.5" customHeight="1">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
     </row>
     <row r="27" spans="1:27" ht="18.25" customHeight="1">
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="48"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
     </row>
     <row r="28" spans="1:27" ht="18.25" customHeight="1">
       <c r="B28" s="25"/>
@@ -2126,30 +2126,39 @@
     </row>
     <row r="29" spans="1:27" ht="30.5" customHeight="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43" t="s">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:R11"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B5:I5"/>
@@ -2166,15 +2175,6 @@
     <mergeCell ref="B10:AA10"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="F29:K29"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:R11"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/requisition/TR_pt.xlsx
+++ b/src/main/resources/static/requisition/TR_pt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fubo.ding/projects_siglus_to14/siglus-api/src/main/resources/static/requisition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0592C761-4C33-9E4A-8E15-0A02DDAF0830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0E4A7E-5894-9546-BB7C-B161AD83F3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>CMAM - TDR</t>
   </si>
@@ -290,10 +290,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Observações: {observer}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>{product.receive}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -399,6 +395,14 @@
   </si>
   <si>
     <t>{product.empty}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Observações: </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{comment}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -721,12 +725,33 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -739,21 +764,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -766,17 +779,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="140" zoomScaleSheetLayoutView="134" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="129" zoomScaleNormal="140" zoomScaleSheetLayoutView="134" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1242,26 +1246,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="43.25" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="40" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
       <c r="O1" s="12" t="s">
         <v>15</v>
       </c>
@@ -1270,56 +1274,56 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="18.25" customHeight="1">
-      <c r="A2" s="39"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="53" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="52" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="18.25" customHeight="1">
-      <c r="A3" s="39"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="49"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="52"/>
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1">
       <c r="A4" s="3"/>
@@ -1341,16 +1345,16 @@
     </row>
     <row r="5" spans="1:27" ht="30.5" customHeight="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
@@ -1361,10 +1365,10 @@
     </row>
     <row r="6" spans="1:27" ht="30" customHeight="1">
       <c r="A6" s="29"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
@@ -1389,7 +1393,7 @@
     </row>
     <row r="7" spans="1:27" ht="38" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>47</v>
@@ -1401,7 +1405,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>52</v>
@@ -1455,85 +1459,85 @@
     </row>
     <row r="10" spans="1:27" ht="30.5" customHeight="1">
       <c r="A10" s="29"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="48"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="51"/>
     </row>
     <row r="11" spans="1:27" ht="24.25" customHeight="1">
       <c r="A11" s="29"/>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="43" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="43" t="s">
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="36" t="s">
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="44" t="s">
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="43" t="s">
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="44"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="43" t="s">
+      <c r="T11" s="36"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="W11" s="44"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="43" t="s">
+      <c r="W11" s="36"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="45"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="37"/>
     </row>
     <row r="12" spans="1:27" ht="21.25" customHeight="1">
       <c r="A12" s="29"/>
-      <c r="B12" s="36"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="21" t="s">
         <v>29</v>
       </c>
@@ -1616,79 +1620,79 @@
         <v>3</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="G13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="H13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="K13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="L13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="M13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="N13" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="O13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="P13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="Q13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="R13" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="S13" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="V13" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="S13" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="V13" s="13" t="s">
+      <c r="W13" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="W13" s="13" t="s">
+      <c r="X13" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="X13" s="13" t="s">
+      <c r="Y13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Y13" s="13" t="s">
+      <c r="Z13" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Z13" s="13" t="s">
+      <c r="AA13" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="AA13" s="13" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="18.25" customHeight="1">
@@ -2049,63 +2053,65 @@
       <c r="O25" s="33"/>
       <c r="P25" s="19"/>
     </row>
-    <row r="26" spans="1:27" ht="30.5" customHeight="1">
-      <c r="B26" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-    </row>
-    <row r="27" spans="1:27" ht="18.25" customHeight="1">
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
+    <row r="26" spans="1:27" ht="20" customHeight="1">
+      <c r="B26" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+    </row>
+    <row r="27" spans="1:27" ht="24" customHeight="1">
+      <c r="B27" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
     </row>
     <row r="28" spans="1:27" ht="18.25" customHeight="1">
       <c r="B28" s="25"/>
@@ -2126,39 +2132,30 @@
     </row>
     <row r="29" spans="1:27" ht="30.5" customHeight="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35" t="s">
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:R11"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B5:I5"/>
@@ -2175,6 +2172,15 @@
     <mergeCell ref="B10:AA10"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="F29:K29"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:R11"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/requisition/TR_pt.xlsx
+++ b/src/main/resources/static/requisition/TR_pt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fubo.ding/projects_siglus_to14/siglus-api/src/main/resources/static/requisition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinghe/Desktop/dev/siglus-api/src/main/resources/static/requisition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0E4A7E-5894-9546-BB7C-B161AD83F3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4283A50A-0819-6A45-9F50-78DCD4D62B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="1940" windowWidth="34560" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TR" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>CMAM - TDR</t>
   </si>
@@ -405,13 +405,25 @@
     <t>{comment}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> Quantidade Autorizada</t>
+  </si>
+  <si>
+    <t>{product.requestedQuantity}</t>
+  </si>
+  <si>
+    <t>{product.authorizedQuantity}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quantidade Requisitada</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -537,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -615,11 +627,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -680,7 +703,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -713,7 +736,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -749,12 +772,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -764,6 +790,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -779,12 +808,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -886,9 +912,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -926,9 +952,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -961,26 +987,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1013,26 +1022,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1208,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="129" zoomScaleNormal="140" zoomScaleSheetLayoutView="134" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:AA26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="129" zoomScaleNormal="140" zoomScaleSheetLayoutView="134" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1246,7 +1238,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="43.25" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
@@ -1255,17 +1247,17 @@
       </c>
       <c r="D1" s="39"/>
       <c r="E1" s="40"/>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
       <c r="O1" s="12" t="s">
         <v>15</v>
       </c>
@@ -1274,56 +1266,56 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="18.25" customHeight="1">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
       <c r="O2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="54" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="18.25" customHeight="1">
-      <c r="A3" s="46"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
       <c r="O3" s="42"/>
-      <c r="P3" s="52"/>
+      <c r="P3" s="54"/>
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1">
       <c r="A4" s="3"/>
@@ -1345,7 +1337,7 @@
     </row>
     <row r="5" spans="1:27" ht="30.5" customHeight="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="44"/>
@@ -1355,8 +1347,8 @@
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
       <c r="I5" s="44"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
       <c r="L5" s="30"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -1387,6 +1379,12 @@
       <c r="I6" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="J6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="M6" s="15"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
@@ -1418,6 +1416,12 @@
       </c>
       <c r="I7" s="13" t="s">
         <v>55</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="M7" s="16"/>
       <c r="O7" s="16"/>
@@ -1459,34 +1463,34 @@
     </row>
     <row r="10" spans="1:27" ht="30.5" customHeight="1">
       <c r="A10" s="29"/>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="53"/>
     </row>
     <row r="11" spans="1:27" ht="24.25" customHeight="1">
       <c r="A11" s="29"/>
@@ -2054,64 +2058,64 @@
       <c r="P25" s="19"/>
     </row>
     <row r="26" spans="1:27" ht="20" customHeight="1">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
     </row>
     <row r="27" spans="1:27" ht="24" customHeight="1">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
     </row>
     <row r="28" spans="1:27" ht="18.25" customHeight="1">
       <c r="B28" s="25"/>
@@ -2132,33 +2136,32 @@
     </row>
     <row r="29" spans="1:27" ht="30.5" customHeight="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43" t="s">
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43" t="s">
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="C2:N2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="F1:N1"/>
@@ -2181,6 +2184,7 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="O11:R11"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/requisition/TR_pt.xlsx
+++ b/src/main/resources/static/requisition/TR_pt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinghe/Desktop/dev/siglus-api/src/main/resources/static/requisition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4283A50A-0819-6A45-9F50-78DCD4D62B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6060445-4D1E-3848-9ACC-A021DC9D5F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="1940" windowWidth="34560" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t>CMAM - TDR</t>
   </si>
@@ -416,6 +416,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Quantidade Requisitada</t>
+  </si>
+  <si>
+    <t>Quantidade Aprovada</t>
+  </si>
+  <si>
+    <t>{product.approvedQuantity}</t>
   </si>
 </sst>
 </file>
@@ -748,6 +754,27 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -755,6 +782,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -766,9 +805,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -776,36 +812,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1201,7 +1207,7 @@
   <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="129" zoomScaleNormal="140" zoomScaleSheetLayoutView="134" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1238,26 +1244,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="43.25" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
       <c r="O1" s="12" t="s">
         <v>15</v>
       </c>
@@ -1266,56 +1272,56 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="18.25" customHeight="1">
-      <c r="A2" s="47"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="42" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="48" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="18.25" customHeight="1">
-      <c r="A3" s="47"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="54"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="48"/>
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1">
       <c r="A4" s="3"/>
@@ -1337,18 +1343,18 @@
     </row>
     <row r="5" spans="1:27" ht="30.5" customHeight="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="30"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -1357,10 +1363,10 @@
     </row>
     <row r="6" spans="1:27" ht="30" customHeight="1">
       <c r="A6" s="29"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
@@ -1384,6 +1390,9 @@
       </c>
       <c r="K6" s="10" t="s">
         <v>87</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="M6" s="15"/>
       <c r="O6" s="15"/>
@@ -1422,6 +1431,9 @@
       </c>
       <c r="K7" s="13" t="s">
         <v>89</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="M7" s="16"/>
       <c r="O7" s="16"/>
@@ -1463,85 +1475,85 @@
     </row>
     <row r="10" spans="1:27" ht="30.5" customHeight="1">
       <c r="A10" s="29"/>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="53"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="47"/>
     </row>
     <row r="11" spans="1:27" ht="24.25" customHeight="1">
       <c r="A11" s="29"/>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="35" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="35" t="s">
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="41" t="s">
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="36" t="s">
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="35" t="s">
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="36"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="35" t="s">
+      <c r="T11" s="43"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="W11" s="36"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="35" t="s">
+      <c r="W11" s="43"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="37"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="44"/>
     </row>
     <row r="12" spans="1:27" ht="21.25" customHeight="1">
       <c r="A12" s="29"/>
-      <c r="B12" s="41"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="21" t="s">
         <v>29</v>
       </c>
@@ -2058,64 +2070,64 @@
       <c r="P25" s="19"/>
     </row>
     <row r="26" spans="1:27" ht="20" customHeight="1">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
     </row>
     <row r="27" spans="1:27" ht="24" customHeight="1">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
     </row>
     <row r="28" spans="1:27" ht="18.25" customHeight="1">
       <c r="B28" s="25"/>
@@ -2136,30 +2148,39 @@
     </row>
     <row r="29" spans="1:27" ht="30.5" customHeight="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45" t="s">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="C2:N2"/>
@@ -2176,15 +2197,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="F29:K29"/>
     <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/requisition/TR_pt.xlsx
+++ b/src/main/resources/static/requisition/TR_pt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinghe/Desktop/dev/siglus-api/src/main/resources/static/requisition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6060445-4D1E-3848-9ACC-A021DC9D5F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09AB009-68E1-7B46-B900-2764B19AD895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="1940" windowWidth="34560" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
   <si>
     <t>CMAM - TDR</t>
   </si>
@@ -422,6 +422,12 @@
   </si>
   <si>
     <t>{product.approvedQuantity}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quantidade Sugerida</t>
+  </si>
+  <si>
+    <t>{product.suggestedQuantity}</t>
   </si>
 </sst>
 </file>
@@ -754,12 +760,39 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -775,15 +808,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -794,24 +818,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1207,7 +1213,7 @@
   <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="129" zoomScaleNormal="140" zoomScaleSheetLayoutView="134" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1244,26 +1250,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="43.25" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="39" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
       <c r="O1" s="12" t="s">
         <v>15</v>
       </c>
@@ -1272,56 +1278,56 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="18.25" customHeight="1">
-      <c r="A2" s="38"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="52" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="54" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="18.25" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="48"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="54"/>
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1">
       <c r="A4" s="3"/>
@@ -1343,18 +1349,18 @@
     </row>
     <row r="5" spans="1:27" ht="30.5" customHeight="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
       <c r="L5" s="30"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -1363,10 +1369,10 @@
     </row>
     <row r="6" spans="1:27" ht="30" customHeight="1">
       <c r="A6" s="29"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
@@ -1386,15 +1392,17 @@
         <v>26</v>
       </c>
       <c r="J6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="M6" s="15"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
     </row>
@@ -1427,15 +1435,17 @@
         <v>55</v>
       </c>
       <c r="J7" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="L7" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="M7" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="M7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
     </row>
@@ -1475,85 +1485,85 @@
     </row>
     <row r="10" spans="1:27" ht="30.5" customHeight="1">
       <c r="A10" s="29"/>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="47"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="53"/>
     </row>
     <row r="11" spans="1:27" ht="24.25" customHeight="1">
       <c r="A11" s="29"/>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="42" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="42" t="s">
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="36" t="s">
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="43" t="s">
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="42" t="s">
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="43"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="42" t="s">
+      <c r="T11" s="36"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="W11" s="43"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="42" t="s">
+      <c r="W11" s="36"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="44"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="37"/>
     </row>
     <row r="12" spans="1:27" ht="21.25" customHeight="1">
       <c r="A12" s="29"/>
-      <c r="B12" s="36"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="21" t="s">
         <v>29</v>
       </c>
@@ -2070,64 +2080,64 @@
       <c r="P25" s="19"/>
     </row>
     <row r="26" spans="1:27" ht="20" customHeight="1">
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
     </row>
     <row r="27" spans="1:27" ht="24" customHeight="1">
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
     </row>
     <row r="28" spans="1:27" ht="18.25" customHeight="1">
       <c r="B28" s="25"/>
@@ -2148,39 +2158,30 @@
     </row>
     <row r="29" spans="1:27" ht="30.5" customHeight="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35" t="s">
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35" t="s">
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="C2:N2"/>
@@ -2197,6 +2198,15 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="F29:K29"/>
     <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
